--- a/data/processed_data.xlsx
+++ b/data/processed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,31 @@
           <t>costs</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>total_revenue</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>delayed_shipment</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>delivery_ratio</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>inventory_turnover</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>avg_shipping_cost</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -646,6 +671,21 @@
       <c r="X2" t="n">
         <v>187.7520754592039</v>
       </c>
+      <c r="Y2" t="n">
+        <v>8661.996792392383</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>13.82758620689655</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.03079762645240424</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -738,6 +778,21 @@
       <c r="X3" t="n">
         <v>503.0655791496692</v>
       </c>
+      <c r="Y3" t="n">
+        <v>7460.900065445849</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>13.88679245283019</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2626101289576029</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -830,6 +885,21 @@
       <c r="X4" t="n">
         <v>141.9202817715191</v>
       </c>
+      <c r="Y4" t="n">
+        <v>9577.74962586873</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.09152817342877449</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -922,6 +992,21 @@
       <c r="X5" t="n">
         <v>254.7761592192866</v>
       </c>
+      <c r="Y5" t="n">
+        <v>7766.836425685233</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>3.608695652173913</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.02931472141599032</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1014,6 +1099,21 @@
       <c r="X6" t="n">
         <v>923.4406317119222</v>
       </c>
+      <c r="Y6" t="n">
+        <v>2686.505151567447</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.069474069926262</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1106,6 +1206,21 @@
       <c r="X7" t="n">
         <v>235.4612367355375</v>
       </c>
+      <c r="Y7" t="n">
+        <v>2828.348745975759</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.633333333333333</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.06733483127851959</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1198,6 +1313,21 @@
       <c r="X8" t="n">
         <v>134.3690968610317</v>
       </c>
+      <c r="Y8" t="n">
+        <v>7823.476559531737</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.909090909090909</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.06690971211986212</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1290,6 +1420,21 @@
       <c r="X9" t="n">
         <v>802.0563118175586</v>
       </c>
+      <c r="Y9" t="n">
+        <v>8496.103813089838</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>4.580645161290323</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.2134853440379801</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1382,6 +1527,21 @@
       <c r="X10" t="n">
         <v>505.5571342254642</v>
       </c>
+      <c r="Y10" t="n">
+        <v>7517.363210631127</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.2269822571388684</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1474,6 +1634,21 @@
       <c r="X11" t="n">
         <v>995.9294614986416</v>
       </c>
+      <c r="Y11" t="n">
+        <v>4971.145987585558</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.08634512398853272</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1566,6 +1741,21 @@
       <c r="X12" t="n">
         <v>806.1031777029229</v>
       </c>
+      <c r="Y12" t="n">
+        <v>2330.965802091949</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19.52941176470588</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.1084151401409827</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1658,6 +1848,21 @@
       <c r="X13" t="n">
         <v>126.7230334094072</v>
       </c>
+      <c r="Y13" t="n">
+        <v>6099.944115581452</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>20.8695652173913</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.07539905207194438</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1750,6 +1955,21 @@
       <c r="X14" t="n">
         <v>402.9687890737706</v>
       </c>
+      <c r="Y14" t="n">
+        <v>2873.741446021441</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.01559145894334732</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1842,6 +2062,21 @@
       <c r="X15" t="n">
         <v>547.2410051609685</v>
       </c>
+      <c r="Y15" t="n">
+        <v>4052.738416237866</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3.1125</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1986933971064237</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1934,6 +2169,21 @@
       <c r="X16" t="n">
         <v>929.2352899608896</v>
       </c>
+      <c r="Y16" t="n">
+        <v>8653.570926469802</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.40740740740741</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.02615089986473503</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2026,6 +2276,21 @@
       <c r="X17" t="n">
         <v>127.8618000016254</v>
       </c>
+      <c r="Y17" t="n">
+        <v>5442.086785397673</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>52.11111111111111</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.03510202497500296</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2118,6 +2383,21 @@
       <c r="X18" t="n">
         <v>865.5257797712403</v>
       </c>
+      <c r="Y18" t="n">
+        <v>6453.797968176285</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.05373493058596797</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2210,6 +2490,21 @@
       <c r="X19" t="n">
         <v>670.9343907924103</v>
       </c>
+      <c r="Y19" t="n">
+        <v>2629.396434845262</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.04218139950861579</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2302,6 +2597,21 @@
       <c r="X20" t="n">
         <v>593.4802587206518</v>
       </c>
+      <c r="Y20" t="n">
+        <v>9364.673505076173</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>62</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.09433097204588498</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2394,6 +2704,21 @@
       <c r="X21" t="n">
         <v>477.3076310909034</v>
       </c>
+      <c r="Y21" t="n">
+        <v>2553.495584991215</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>3.895833333333333</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.05045357322172209</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2486,6 +2811,21 @@
       <c r="X22" t="n">
         <v>493.8712153162058</v>
       </c>
+      <c r="Y22" t="n">
+        <v>8128.027696851192</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11.85185185185185</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.1305637448665712</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2578,6 +2918,21 @@
       <c r="X23" t="n">
         <v>523.360914720158</v>
       </c>
+      <c r="Y23" t="n">
+        <v>7087.052696357437</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>8.710144927536232</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.8625548241740425</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2670,6 +3025,21 @@
       <c r="X24" t="n">
         <v>205.5719958269471</v>
       </c>
+      <c r="Y24" t="n">
+        <v>2390.807866556173</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12.45070422535211</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.1518674431892546</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2762,6 +3132,21 @@
       <c r="X25" t="n">
         <v>196.3294461124127</v>
       </c>
+      <c r="Y25" t="n">
+        <v>8858.367571011484</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>4.654761904761905</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.1008571586601915</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2854,6 +3239,21 @@
       <c r="X26" t="n">
         <v>758.7247726029383</v>
       </c>
+      <c r="Y26" t="n">
+        <v>9049.077860939897</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>4.870645844642184</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2946,6 +3346,21 @@
       <c r="X27" t="n">
         <v>458.535945739209</v>
       </c>
+      <c r="Y27" t="n">
+        <v>2174.777054350654</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.731707317073171</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.04290526310157169</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3038,6 +3453,21 @@
       <c r="X28" t="n">
         <v>617.8669164583772</v>
       </c>
+      <c r="Y28" t="n">
+        <v>3716.493325894037</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>5.983050847457627</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.1355739296058031</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3130,6 +3560,21 @@
       <c r="X29" t="n">
         <v>762.4591821556837</v>
       </c>
+      <c r="Y29" t="n">
+        <v>2686.457223575984</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>7.48936170212766</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.119463725048356</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3222,6 +3667,21 @@
       <c r="X30" t="n">
         <v>123.4370275118271</v>
       </c>
+      <c r="Y30" t="n">
+        <v>6117.324615083992</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.208333333333334</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.4124225211695509</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3314,6 +3774,21 @@
       <c r="X31" t="n">
         <v>764.9353759407081</v>
       </c>
+      <c r="Y31" t="n">
+        <v>8318.903194617178</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>5.622222222222222</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.1209100469462243</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3406,6 +3881,21 @@
       <c r="X32" t="n">
         <v>880.080988247161</v>
       </c>
+      <c r="Y32" t="n">
+        <v>2766.342366866089</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.2558436661519433</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3498,6 +3988,21 @@
       <c r="X33" t="n">
         <v>609.3792066184267</v>
       </c>
+      <c r="Y33" t="n">
+        <v>9655.135102719398</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.06090138556775924</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3590,6 +4095,21 @@
       <c r="X34" t="n">
         <v>761.1739095148776</v>
       </c>
+      <c r="Y34" t="n">
+        <v>9571.550487327821</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>8.775280898876405</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.1031110140818529</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3682,6 +4202,21 @@
       <c r="X35" t="n">
         <v>371.255295519871</v>
       </c>
+      <c r="Y35" t="n">
+        <v>5149.998350408036</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>154</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.05113968950985937</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3774,6 +4309,21 @@
       <c r="X36" t="n">
         <v>510.3580004335235</v>
       </c>
+      <c r="Y36" t="n">
+        <v>9061.710895507724</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>602</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.04854702718200567</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3866,6 +4416,21 @@
       <c r="X37" t="n">
         <v>553.4204712303558</v>
       </c>
+      <c r="Y37" t="n">
+        <v>6541.329344802465</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10.69047619047619</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.06221399988620482</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3958,6 +4523,21 @@
       <c r="X38" t="n">
         <v>403.8089742481805</v>
       </c>
+      <c r="Y38" t="n">
+        <v>7573.402457848733</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.07528397382711004</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4050,6 +4630,21 @@
       <c r="X39" t="n">
         <v>183.9329680435944</v>
       </c>
+      <c r="Y39" t="n">
+        <v>2438.339930470029</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>38.52</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.07298358445668718</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4142,6 +4737,21 @@
       <c r="X40" t="n">
         <v>339.6728699486061</v>
       </c>
+      <c r="Y40" t="n">
+        <v>9692.318040218432</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>10.21739130434783</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.1049537663323776</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4234,6 +4844,21 @@
       <c r="X41" t="n">
         <v>653.6729945520332</v>
       </c>
+      <c r="Y41" t="n">
+        <v>1912.465663100761</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2.256410256410256</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.1636030523185407</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4326,6 +4951,21 @@
       <c r="X42" t="n">
         <v>529.8087239806919</v>
       </c>
+      <c r="Y42" t="n">
+        <v>5724.959350456265</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10.36666666666667</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.1853742343522173</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4418,6 +5058,21 @@
       <c r="X43" t="n">
         <v>275.5243711313098</v>
       </c>
+      <c r="Y43" t="n">
+        <v>5521.205259010972</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>8.6875</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.1519279932570172</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4510,6 +5165,21 @@
       <c r="X44" t="n">
         <v>635.6571205019919</v>
       </c>
+      <c r="Y44" t="n">
+        <v>1839.609425856764</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>7.045454545454546</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.1320394443307282</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4602,6 +5272,21 @@
       <c r="X45" t="n">
         <v>716.0441197593407</v>
       </c>
+      <c r="Y45" t="n">
+        <v>5737.425599119023</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>16.61111111111111</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.04345907374574652</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4694,6 +5379,21 @@
       <c r="X46" t="n">
         <v>610.4532696192277</v>
       </c>
+      <c r="Y46" t="n">
+        <v>7152.286049435515</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>70.69230769230769</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.1052423563524541</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4786,6 +5486,21 @@
       <c r="X47" t="n">
         <v>495.305697028474</v>
       </c>
+      <c r="Y47" t="n">
+        <v>5267.956807510521</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.2580645161290323</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.100291442475229</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4878,6 +5593,21 @@
       <c r="X48" t="n">
         <v>380.4359371119643</v>
       </c>
+      <c r="Y48" t="n">
+        <v>2556.767360633596</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.336956521739131</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.6784926395140137</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4970,6 +5700,21 @@
       <c r="X49" t="n">
         <v>581.6023550505868</v>
       </c>
+      <c r="Y49" t="n">
+        <v>7089.474249934186</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0.1760539363911759</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5062,6 +5807,21 @@
       <c r="X50" t="n">
         <v>768.65191395437</v>
       </c>
+      <c r="Y50" t="n">
+        <v>7397.07100458718</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.9666666666666667</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0.7884259062839043</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5154,6 +5914,21 @@
       <c r="X51" t="n">
         <v>336.8901685199779</v>
       </c>
+      <c r="Y51" t="n">
+        <v>8001.613206519002</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.020618556701031</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0.2784023369889906</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5246,6 +6021,21 @@
       <c r="X52" t="n">
         <v>496.2486502919405</v>
       </c>
+      <c r="Y52" t="n">
+        <v>5910.885389668899</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>20.41935483870968</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0.07619342579239013</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5338,6 +6128,21 @@
       <c r="X53" t="n">
         <v>694.9823175794459</v>
       </c>
+      <c r="Y53" t="n">
+        <v>9866.465457979695</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0.09198077996053203</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5430,6 +6235,21 @@
       <c r="X54" t="n">
         <v>602.8984988383834</v>
       </c>
+      <c r="Y54" t="n">
+        <v>9435.76260891213</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>12.8125</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.7846411072517224</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5522,6 +6342,21 @@
       <c r="X55" t="n">
         <v>750.7378406682709</v>
       </c>
+      <c r="Y55" t="n">
+        <v>8232.334829425821</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>2.520833333333333</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0.0187682697425166</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5614,6 +6449,21 @@
       <c r="X56" t="n">
         <v>814.0699965821875</v>
       </c>
+      <c r="Y56" t="n">
+        <v>6088.021479940859</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>18.84848484848485</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0.07057546674242027</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5706,6 +6556,21 @@
       <c r="X57" t="n">
         <v>323.0129279524788</v>
       </c>
+      <c r="Y57" t="n">
+        <v>2925.675170303813</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>7.22680412371134</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0.4558513595482643</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5798,6 +6663,21 @@
       <c r="X58" t="n">
         <v>832.2108087060217</v>
       </c>
+      <c r="Y58" t="n">
+        <v>4767.020484344137</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>0.02137867125387638</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5890,6 +6770,21 @@
       <c r="X59" t="n">
         <v>482.1912386025281</v>
       </c>
+      <c r="Y59" t="n">
+        <v>1605.866900392406</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0.1796187948114092</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5982,6 +6877,21 @@
       <c r="X60" t="n">
         <v>110.3643352313647</v>
       </c>
+      <c r="Y60" t="n">
+        <v>2021.149810337108</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>89.59999999999999</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0.112237240107093</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6074,6 +6984,21 @@
       <c r="X61" t="n">
         <v>312.5742736100933</v>
       </c>
+      <c r="Y61" t="n">
+        <v>1061.618523013288</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.2805277921872203</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6166,6 +7091,21 @@
       <c r="X62" t="n">
         <v>430.1690969751365</v>
       </c>
+      <c r="Y62" t="n">
+        <v>8864.084349586436</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>9.268292682926829</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.06085233552919881</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6258,6 +7198,21 @@
       <c r="X63" t="n">
         <v>164.3665282434194</v>
       </c>
+      <c r="Y63" t="n">
+        <v>6885.589350896253</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>3.65625</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.2508427895144986</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6350,6 +7305,21 @@
       <c r="X64" t="n">
         <v>320.8465157591116</v>
       </c>
+      <c r="Y64" t="n">
+        <v>3899.746833729224</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3.13953488372093</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0.1822925347194194</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6442,6 +7412,21 @@
       <c r="X65" t="n">
         <v>687.2861778664173</v>
       </c>
+      <c r="Y65" t="n">
+        <v>4256.949140850225</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>4.555555555555555</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0.245793352798733</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6534,6 +7519,21 @@
       <c r="X66" t="n">
         <v>771.2250846811575</v>
       </c>
+      <c r="Y66" t="n">
+        <v>8458.730878367178</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.835616438356164</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0.06113804624259536</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6626,6 +7626,21 @@
       <c r="X67" t="n">
         <v>555.8591036717435</v>
       </c>
+      <c r="Y67" t="n">
+        <v>8354.579686481995</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>8.017543859649123</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0.1218618768126777</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6718,6 +7733,21 @@
       <c r="X68" t="n">
         <v>393.8433485784279</v>
       </c>
+      <c r="Y68" t="n">
+        <v>8367.721618020154</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>54.15384615384615</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.1166390909879665</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6810,6 +7840,21 @@
       <c r="X69" t="n">
         <v>169.2718013847869</v>
       </c>
+      <c r="Y69" t="n">
+        <v>9473.798032508335</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0.1288424161226849</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6902,6 +7947,23 @@
       <c r="X70" t="n">
         <v>299.7063031181032</v>
       </c>
+      <c r="Y70" t="n">
+        <v>3550.218432780992</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="AC70" t="n">
+        <v>0.02059054939456895</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6994,6 +8056,21 @@
       <c r="X71" t="n">
         <v>207.6632062085756</v>
       </c>
+      <c r="Y71" t="n">
+        <v>1752.381087484125</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>5.378947368421053</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0.3594550663007536</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7086,6 +8163,21 @@
       <c r="X72" t="n">
         <v>183.272898748711</v>
       </c>
+      <c r="Y72" t="n">
+        <v>7014.887987203389</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.2870780797545783</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7178,6 +8270,21 @@
       <c r="X73" t="n">
         <v>405.1670678888559</v>
       </c>
+      <c r="Y73" t="n">
+        <v>8180.337085425443</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>8.381578947368421</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0.3549303968097121</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7270,6 +8377,21 @@
       <c r="X74" t="n">
         <v>677.9445698461833</v>
       </c>
+      <c r="Y74" t="n">
+        <v>2633.121981312256</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>8.385964912280702</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0.08570927480116292</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7362,6 +8484,21 @@
       <c r="X75" t="n">
         <v>866.4728001296578</v>
       </c>
+      <c r="Y75" t="n">
+        <v>7910.886916140686</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>22.05882352941176</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0.02292328540781935</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7454,6 +8591,21 @@
       <c r="X76" t="n">
         <v>341.5526567832234</v>
       </c>
+      <c r="Y76" t="n">
+        <v>5709.945295969287</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>22.04878048780488</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>5.237654650037448</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7546,6 +8698,21 @@
       <c r="X77" t="n">
         <v>873.1296480176514</v>
       </c>
+      <c r="Y77" t="n">
+        <v>1889.073589779335</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>6.625</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.04417674573295466</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7638,6 +8805,21 @@
       <c r="X78" t="n">
         <v>997.4134501331946</v>
       </c>
+      <c r="Y78" t="n">
+        <v>5328.375984297758</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>6.342105263157895</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>0.3206608334925876</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7730,6 +8912,21 @@
       <c r="X79" t="n">
         <v>852.5680989198499</v>
       </c>
+      <c r="Y79" t="n">
+        <v>2483.760177542795</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>3.739583333333333</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>0.1189639758880333</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7822,6 +9019,21 @@
       <c r="X80" t="n">
         <v>323.5922034313222</v>
       </c>
+      <c r="Y80" t="n">
+        <v>1292.458417937756</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>0.166020583742392</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7914,6 +9126,21 @@
       <c r="X81" t="n">
         <v>351.5042193350387</v>
       </c>
+      <c r="Y81" t="n">
+        <v>7888.723268427081</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>6.387096774193548</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>0.3248162682147522</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8006,6 +9233,21 @@
       <c r="X82" t="n">
         <v>787.7798504943445</v>
       </c>
+      <c r="Y82" t="n">
+        <v>8651.672682982065</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>22.35897435897436</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>0.06910206535168231</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8098,6 +9340,21 @@
       <c r="X83" t="n">
         <v>276.7783359467988</v>
       </c>
+      <c r="Y83" t="n">
+        <v>4384.413400045863</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>16.125</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>0.5082846876890055</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8190,6 +9447,21 @@
       <c r="X84" t="n">
         <v>589.9785556280407</v>
       </c>
+      <c r="Y84" t="n">
+        <v>2943.381867609452</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>0.06539141491030459</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8282,6 +9554,21 @@
       <c r="X85" t="n">
         <v>682.9710182260933</v>
       </c>
+      <c r="Y85" t="n">
+        <v>2411.754632110491</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>0.7071199397138498</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8374,6 +9661,21 @@
       <c r="X86" t="n">
         <v>465.457005963688</v>
       </c>
+      <c r="Y86" t="n">
+        <v>2048.29009984871</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>8.465753424657533</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>0.1047701953115329</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8466,6 +9768,21 @@
       <c r="X87" t="n">
         <v>842.6868300046415</v>
       </c>
+      <c r="Y87" t="n">
+        <v>8684.613059253858</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>0.1249874046192686</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8558,6 +9875,21 @@
       <c r="X88" t="n">
         <v>264.2548898358665</v>
       </c>
+      <c r="Y88" t="n">
+        <v>1229.591028564983</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>6.96875</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>0.06610478682516144</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8650,6 +9982,21 @@
       <c r="X89" t="n">
         <v>879.3592177349243</v>
       </c>
+      <c r="Y89" t="n">
+        <v>5133.846701086692</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>0.119560069046337</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8742,6 +10089,21 @@
       <c r="X90" t="n">
         <v>103.916247960705</v>
       </c>
+      <c r="Y90" t="n">
+        <v>9444.742033062979</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>12.28333333333333</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>0.0447206250933068</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8834,6 +10196,21 @@
       <c r="X91" t="n">
         <v>517.4999739290605</v>
       </c>
+      <c r="Y91" t="n">
+        <v>5924.682566853231</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.488888888888889</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>0.367770972047306</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8926,6 +10303,21 @@
       <c r="X92" t="n">
         <v>990.0784725058112</v>
       </c>
+      <c r="Y92" t="n">
+        <v>9592.633570280312</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>4.848484848484849</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0.07994198654284056</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9018,6 +10410,21 @@
       <c r="X93" t="n">
         <v>996.7783149506238</v>
       </c>
+      <c r="Y93" t="n">
+        <v>1935.206793507599</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>9.346938775510203</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0.087900165698837</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9110,6 +10517,21 @@
       <c r="X94" t="n">
         <v>230.0927825367629</v>
       </c>
+      <c r="Y94" t="n">
+        <v>2100.129754625937</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>3.066666666666667</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0.4469500026123601</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9202,6 +10624,21 @@
       <c r="X95" t="n">
         <v>823.5238458881558</v>
       </c>
+      <c r="Y95" t="n">
+        <v>4531.40213369191</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.80952380952381</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>0.1061580615000666</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9294,6 +10731,21 @@
       <c r="X96" t="n">
         <v>846.6652569866948</v>
       </c>
+      <c r="Y96" t="n">
+        <v>7888.356546661873</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>12.81818181818182</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>0.09642980475045251</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9386,6 +10838,21 @@
       <c r="X97" t="n">
         <v>778.8642413766479</v>
       </c>
+      <c r="Y97" t="n">
+        <v>7386.363944048664</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.3319361103693367</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9478,6 +10945,21 @@
       <c r="X98" t="n">
         <v>188.7421411490569</v>
       </c>
+      <c r="Y98" t="n">
+        <v>7698.424765632117</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>4.835820895522388</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>0.1672774388749003</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9570,6 +11052,21 @@
       <c r="X99" t="n">
         <v>540.1324228679678</v>
       </c>
+      <c r="Y99" t="n">
+        <v>4370.916579984536</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.347826086956522</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.976211402802419</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9662,6 +11159,21 @@
       <c r="X100" t="n">
         <v>882.1988635470415</v>
       </c>
+      <c r="Y100" t="n">
+        <v>8525.952559683526</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>17.22641509433962</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>0.05221485537548419</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9753,6 +11265,21 @@
       </c>
       <c r="X101" t="n">
         <v>210.7430089642461</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>9185.185829181704</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>0.0222207416291631</v>
       </c>
     </row>
   </sheetData>
